--- a/assets/disciplinas/LOM3235.xlsx
+++ b/assets/disciplinas/LOM3235.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Apresentar os principais processos de manufatura de materiais.</t>
+    <t>984972 - Hugo Ricardo Zschommler Sandim</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -79,13 +79,10 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>984972 - Hugo Ricardo Zschommler Sandim</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Fundamentos de comportamento mecânico dos materiais. Conceitos de usinagem de materiais. Conformação mecânica de metais. Transformação de polímeros termoplásticos.</t>
+    <t>Semestral</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -94,11 +91,6 @@
     <t>Programa:</t>
   </si>
   <si>
-    <t>Fundamentos do comportamento mecânico dos metais. Conceitos de usinagem de materiais: geometria da parte ativa da ferramenta; funções, influência e grandezas dos diversos ângulos da ferramenta; materiais para ferramentas, teoria do corte dos metais; usinabilidade dos materiais; mecanismos de desgaste de ferramenta: variáveis de influência na vida da ferramenta; fluido de corte; forças e potência de corte; processos de torneamento, fresamento, furação e retificação. 
-Princípios de conformação plástica. Classificação dos processos de conformação: laminação, extrusão, trefilação, estampagem e forjamento. Materiais para conformação, componentes de matrizes, ferramentais para processos de conformação, lubrificantes para matrizes, planejamento do processo de conformação, operações, defeitos, conformação contínua, conformação a frio, equipamentos, estampagem, corte, dobra, repuxo, lubrificação no embutimento.
-Métodos físicos de transformação de termoplásticos. Reologia aplicada ao processamento de termoplásticos. Extrusão e processos baseados em extrusão. Moldagem por injeção. Calandragem, termoformagem e moldagem rotacional.</t>
-  </si>
-  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -108,34 +100,22 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Critério:</t>
+  </si>
+  <si>
     <t>Aulas expositivas e aulas práticas de demonstração em oficina. Visita a feiras.</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>Média ponderada de duas provas escritas, trabalhos e relatórios: P1, P2 e TR. Conceito Final = (P1 + 2P2 + TR)/4</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>Aplicação de uma prova escrita dentro do prazo regimental antes do início do próximo semestre letivo. A nota da segunda avaliação será a média aritmética entre a nota da prova de recuperação e a nota final da primeira avaliação</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>CALLISTER, W. D. Ciência e Engenharia de Materiais: uma introdução. Rio de Janeiro, Livros Técnicos e Científicos, 2002.
-DIETER, G. E. Metalurgia Mecânica, Editora Guanabara Dois, 1980.
-FERRARESI, D. Fundamentos da Usinagem dos Metais, Editora Edgard Blücher, 1970.
-DINIZ, A. E.; MARCONDES, P.; COPPINI, N. L., Tecnologia da Usinagem dos Materiais, Artiber Editora, 2000.
-KALPAKJIAN, S. Manufacturing Processes for Engineering Materials, Ed. Addison-Wesley, 1997.
-NELSON, D. H.; SCHNEIDER, Jr. G., Applied Manufacturing process Planning-with emphasis on Metal Forming and Machining. Upper Saddle River, N.J. Prentice Hall, 2001.720p.
-BRESCIANI FILHO, E. et al., Conformação Plástica dos Metais, Ed. Unicamp, 1991.
-NAVARRO, R.F. Fundamentos de Reologia de Polímeros. Editora da Universidade de Caxias do Sul, 1997.
-MIDDLEMAN, S. Fundamentals of Polymer Processing. New York: McGraw-Hill, 1997.
-GRISKEY, R. G. Polymer Processing Engineering. New York: Chapman &amp; Hall, 1995.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -502,7 +482,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -627,114 +607,106 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>24</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="2" t="s">
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
-      <c r="A17" s="1" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>28</v>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="120" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="120" customHeight="1">
-      <c r="A22" s="1" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
-        <v>37</v>
+      <c r="C23" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="30" customHeight="1">
       <c r="B24" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="30" customHeight="1">
-      <c r="B25" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
